--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3369594.461813432</v>
+        <v>3367217.834866065</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.17751365533486</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>191.1874525866097</v>
       </c>
       <c r="U5" t="n">
-        <v>176.6820137830682</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>39.45885325319686</v>
       </c>
       <c r="D7" t="n">
-        <v>114.70539891844</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>136.7819904359902</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>70.90462188432562</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>24.84860440602762</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.89395497654093</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>71.60395572454081</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1588.383781964454</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>1588.383781964454</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>1230.118083357703</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2525.796385313959</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2525.796385313959</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2272.215324578138</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1941.152437234568</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1588.383781964454</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1588.383781964454</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1588.383781964454</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>797.0848490996759</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>428.1223321592641</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="U5" t="n">
-        <v>2383.872647811197</v>
+        <v>2244.521481950252</v>
       </c>
       <c r="V5" t="n">
-        <v>2383.872647811197</v>
+        <v>1913.458594606682</v>
       </c>
       <c r="W5" t="n">
-        <v>2031.103992541083</v>
+        <v>1560.689939336567</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.638234280003</v>
+        <v>1187.224181075488</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.498902304191</v>
+        <v>797.0848490996759</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598622</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9138669598622</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>378.6078255973312</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901019</v>
+        <v>378.6078255973312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1713.412786206037</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="C8" t="n">
-        <v>1344.450269265626</v>
+        <v>1184.34337792405</v>
       </c>
       <c r="D8" t="n">
-        <v>986.1845706588754</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>600.3963180606311</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>189.4104132710235</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2490.718498213967</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2237.137437478146</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>1906.074550134575</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="X8" t="n">
-        <v>2100.012626270159</v>
+        <v>1553.305894864461</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.012626270159</v>
+        <v>1553.305894864461</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>168.0116152688569</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1611.346519664368</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.228182168206</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1067.543693962319</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.543693962319</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978459</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>422.7903292978459</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,58 +5507,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,46 +5756,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6309,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,16 +6543,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,13 +7081,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>199.751631150407</v>
+        <v>129.751134705686</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>66.52709304639032</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.9574215632814</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.937316653</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="H2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="O2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26375,7 +26375,7 @@
         <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26427,34 +26427,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426732039</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426732034</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426732013</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731918</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731985</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426732004</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731983</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731986</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731998</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731959</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731958</v>
+        <v>8117.312426731988</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26473,7 +26473,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603069.9633997735</v>
+        <v>-603069.9633997736</v>
       </c>
       <c r="C6" t="n">
+        <v>511681.820176146</v>
+      </c>
+      <c r="D6" t="n">
         <v>511681.8201761461</v>
       </c>
-      <c r="D6" t="n">
-        <v>511681.820176146</v>
-      </c>
       <c r="E6" t="n">
-        <v>109706.6558458203</v>
+        <v>109671.9179203842</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703659</v>
+        <v>617157.3595449303</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703665</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="J6" t="n">
-        <v>449586.9196603838</v>
+        <v>449552.181734948</v>
       </c>
       <c r="K6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="L6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414393</v>
+        <v>484550.0658160038</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703662</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703663</v>
+        <v>617157.3595449306</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26969,7 +26969,7 @@
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>87.2747017434595</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>15.4707323936241</v>
       </c>
       <c r="U5" t="n">
-        <v>74.36323634539377</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>127.787967845431</v>
       </c>
       <c r="D7" t="n">
-        <v>33.91007409977233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27792,7 +27792,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7657123369638</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>52.54759351446876</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.70941963095891</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>195.9000915911843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31844,25 +31844,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,31 +32783,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,19 +33029,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33263,19 +33263,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>229.6463482471742</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,13 +34784,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432809</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980272</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>436.6197581489557</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37069,13 +37069,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,16 +37385,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
